--- a/libro_analisis1.xlsx
+++ b/libro_analisis1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mferrera\Desktop\ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644EF579-5055-4390-90F3-A22537E96AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF43D74-0AA4-42D8-89D0-5F8D9FA5C338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="195">
   <si>
     <t>Country</t>
   </si>
@@ -586,6 +586,30 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Australia and Oceania</t>
+  </si>
+  <si>
+    <t>Central America and the Caribbean</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Middle East and North Africa</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
   </si>
 </sst>
 </file>
@@ -903,2054 +927,2615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>14368349911.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>14543107537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>14413401561.440001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>14534642448.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>14477828361.530001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>14181087393.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>14387818478.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>14464596371.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>14206643902.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>14292842656.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>14369106558.67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>14316475007.290001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>14470085130.59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>14375740247.200001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>14249875205.32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>14709395888.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>14289680068.610001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>14359378328.959999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>14450227045.34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>14426545278.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>14522204255.379999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>14460902092.709999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>14543107537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13">
+        <v>14267334211.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>14365956851.299999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14">
+        <v>14426708221.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>14316153661.950001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15">
+        <v>14419965916.629999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>14504315893.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16">
+        <v>14544359768.469999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>14568623961.42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17">
+        <v>14389342210.200001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>14479186671.860001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18">
+        <v>14520390988.450001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>14534642448.84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19">
+        <v>14263126044.700001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>14296473194.73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20">
+        <v>14402846658.709999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>14269901206.030001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21">
+        <v>14321277459.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>14181087393.68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22">
+        <v>14599033213.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>14327492302.68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23">
+        <v>14205330412.620001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>14485285182.469999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24">
+        <v>14715610850.559999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>14274171851.719999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25">
+        <v>14246370718.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>14464596371.68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26">
+        <v>14298120193.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>14563568236.620001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27">
+        <v>14476344279.200001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>14502120144.440001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28">
+        <v>14163128210.450001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29">
-        <v>14110973593.09</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>14249875205.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>14431858803.35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>14247528248.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>14466040733.98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31">
+        <v>14518188861.950001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>14292842656.68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>14478252552.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>14558897327.879999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33">
+        <v>14242061655.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34">
-        <v>14561332351.889999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34">
+        <v>14486886380.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>14425812648.24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35">
+        <v>14326675920.030001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36">
-        <v>14468605320.02</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36">
+        <v>14429678222.969999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37">
-        <v>14413392960.77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37">
+        <v>14533826868.57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38">
-        <v>14430660586.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38">
+        <v>14274485240.91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39">
-        <v>14355397943.92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39">
+        <v>14304804144.299999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40">
-        <v>14229493093.18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40">
+        <v>14379015313.76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41">
-        <v>14472961291.139999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41">
+        <v>14205543937.049999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42">
-        <v>14585229630.32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42">
+        <v>14259650102.120001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43">
-        <v>14350519862.950001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43">
+        <v>14542712502.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44">
-        <v>14655056926.09</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>14369106558.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45">
-        <v>14247528248.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>14365956851.299999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46">
-        <v>14602162487.280001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>14568623961.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47">
-        <v>14479950453.129999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47">
+        <v>14561332351.889999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48">
-        <v>14522502898.280001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>14413392960.77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49">
-        <v>14407236392.75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>14350519862.950001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50">
-        <v>14223716529.969999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>14655056926.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51">
-        <v>14429669091.280001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51">
+        <v>14479950453.129999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52">
-        <v>14518188861.950001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52">
+        <v>14291779899.84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53">
-        <v>14478252552.35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>14164776896.559999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54">
-        <v>14328986708.09</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>14363594367.889999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55">
-        <v>14341435781.17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55">
+        <v>14526472018.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56">
-        <v>14474554473.34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>14200081575.690001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57">
-        <v>14354136269.24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57">
+        <v>14233154906.389999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58">
-        <v>14284356979.83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58">
+        <v>14583285542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59">
-        <v>14222689881.27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59">
+        <v>14415188829.950001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60">
-        <v>14317716842.1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60">
+        <v>14374350543.57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61">
-        <v>14341093886.459999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61">
+        <v>14512776696.690001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62">
-        <v>14291779899.84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62">
+        <v>14279620552.34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63">
-        <v>14164776896.559999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63">
+        <v>14507165896.24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64">
-        <v>14297191951.030001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>14413401561.440001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65">
-        <v>14552292413.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>14387818478.65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66">
-        <v>14363594367.889999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>14470085130.59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67">
-        <v>14526472018.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>14289680068.610001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68">
-        <v>14461307670.92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>14316153661.950001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69">
-        <v>14212818975.389999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>14504315893.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70">
-        <v>14316475007.290001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>14296473194.73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71">
-        <v>14375740247.200001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71">
+        <v>14327492302.68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72">
-        <v>14227520346.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72">
+        <v>14468605320.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73">
-        <v>14257792388.23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73">
+        <v>14430660586.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74">
-        <v>14233845989.540001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74">
+        <v>14355397943.92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75">
-        <v>14704176619.620001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75">
+        <v>14472961291.139999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76">
-        <v>14146537639.9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76">
+        <v>14223716529.969999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77">
-        <v>14200081575.690001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77">
+        <v>14328986708.09</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78">
-        <v>14709395888.58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78">
+        <v>14341435781.17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79">
-        <v>14429442154.209999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79">
+        <v>14354136269.24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80">
-        <v>14359378328.959999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80">
+        <v>14284356979.83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81">
-        <v>14307277679.879999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81">
+        <v>14317716842.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82">
-        <v>14242061655.84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82">
+        <v>14461307670.92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83">
-        <v>14295594281.969999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83">
+        <v>14212818975.389999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84">
-        <v>14551243801.51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84">
+        <v>14233845989.540001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85">
-        <v>14426545278.17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85">
+        <v>14146537639.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86">
-        <v>14460902092.709999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86">
+        <v>14295594281.969999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" t="s">
         <v>87</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>14283559257.48</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88">
-        <v>14583645841.040001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88">
+        <v>14340971611.07</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89">
-        <v>14361496763.84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89">
+        <v>14199532557.23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90">
-        <v>14518068553.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90">
+        <v>14355588694.610001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91">
-        <v>14512427903.469999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91">
+        <v>14381082495.15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92">
-        <v>14340971611.07</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92">
+        <v>14367350241.780001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93">
-        <v>14199532557.23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93">
+        <v>14145956627.66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94">
-        <v>14355588694.610001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C94" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94">
+        <v>14356206545.559999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95">
-        <v>14381082495.15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95">
+        <v>14580687782.450001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96">
-        <v>14448965078.52</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96">
+        <v>14501206340.370001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97">
-        <v>14461378867.530001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97">
+        <v>14242159332.540001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98">
-        <v>14267334211.92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C98" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98">
+        <v>14368309326.889999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99">
-        <v>14426708221.74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C99" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99">
+        <v>14484483276.540001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100">
-        <v>14586372830.219999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C100" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100">
+        <v>14224669836.92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101">
-        <v>14367350241.780001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C101" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101">
+        <v>14496052987.290001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102">
-        <v>14486886380.4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C102" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102">
+        <v>14368515157.42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103">
-        <v>14405170871.719999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C103" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103">
+        <v>14544676256.27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104">
-        <v>14395753895.75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104">
+        <v>14502098804.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105">
-        <v>14367222605.629999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C105" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105">
+        <v>14417208975.969999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106">
-        <v>14145956627.66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C106" t="s">
+        <v>155</v>
+      </c>
+      <c r="D106">
+        <v>14465504927.58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107">
-        <v>14356206545.559999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C107" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107">
+        <v>14212646818.219999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108">
-        <v>14419965916.629999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C108" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108">
+        <v>14378513432.379999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109">
-        <v>14580687782.450001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C109" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109">
+        <v>14265015359.790001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110">
-        <v>14295806055.9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s">
+        <v>178</v>
+      </c>
+      <c r="D110">
+        <v>14747230504.639999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111">
-        <v>14326200780.110001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="C111" t="s">
+        <v>182</v>
+      </c>
+      <c r="D111">
+        <v>14241892325.370001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112">
-        <v>14544359768.469999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>14368349911.84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C113">
-        <v>14472995236.92</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>14477828361.530001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114">
-        <v>14326675920.030001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114">
+        <v>14450227045.34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115">
-        <v>14389342210.200001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>14522204255.379999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116">
-        <v>14501206340.370001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C116" t="s">
+        <v>46</v>
+      </c>
+      <c r="D116">
+        <v>14602162487.280001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117">
-        <v>14429678222.969999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C117" t="s">
+        <v>72</v>
+      </c>
+      <c r="D117">
+        <v>14227520346.75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118">
-        <v>14233154906.389999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D118">
+        <v>14257792388.23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119">
-        <v>14467204955.01</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C119" t="s">
+        <v>75</v>
+      </c>
+      <c r="D119">
+        <v>14704176619.620001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120">
-        <v>14234645067.27</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C120" t="s">
+        <v>79</v>
+      </c>
+      <c r="D120">
+        <v>14429442154.209999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121">
-        <v>14520390988.450001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C121" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121">
+        <v>14551243801.51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122">
-        <v>14242159332.540001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C122" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122">
+        <v>14583645841.040001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123">
-        <v>14241913914.469999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C123" t="s">
+        <v>91</v>
+      </c>
+      <c r="D123">
+        <v>14512427903.469999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
-      </c>
-      <c r="C124">
-        <v>14391232520.27</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C124" t="s">
+        <v>110</v>
+      </c>
+      <c r="D124">
+        <v>14295806055.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
-      </c>
-      <c r="C125">
-        <v>14533826868.57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C125" t="s">
+        <v>123</v>
+      </c>
+      <c r="D125">
+        <v>14241913914.469999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126">
-        <v>14583285542</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C126" t="s">
+        <v>124</v>
+      </c>
+      <c r="D126">
+        <v>14391232520.27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127">
-        <v>14274485240.91</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C127" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127">
+        <v>13988832188.83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
-      </c>
-      <c r="C128">
-        <v>14263126044.700001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C128" t="s">
+        <v>142</v>
+      </c>
+      <c r="D128">
+        <v>14492751696.32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
-      </c>
-      <c r="C129">
-        <v>14368309326.889999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C129" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129">
+        <v>14449154631.77</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
-      </c>
-      <c r="C130">
-        <v>14484483276.540001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C130" t="s">
+        <v>161</v>
+      </c>
+      <c r="D130">
+        <v>14067812692.51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
-      </c>
-      <c r="C131">
-        <v>13988832188.83</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C131" t="s">
+        <v>171</v>
+      </c>
+      <c r="D131">
+        <v>14119143166.01</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
-      </c>
-      <c r="C132">
-        <v>14368842829.870001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C132" t="s">
+        <v>172</v>
+      </c>
+      <c r="D132">
+        <v>14230674601.700001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
-      </c>
-      <c r="C133">
-        <v>14224669836.92</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C133" t="s">
+        <v>177</v>
+      </c>
+      <c r="D133">
+        <v>14488021626.540001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
-      </c>
-      <c r="C134">
-        <v>14496052987.290001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="C134" t="s">
+        <v>184</v>
+      </c>
+      <c r="D134">
+        <v>14593421621.24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
-      </c>
-      <c r="C135">
-        <v>14466910860.77</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135">
+        <v>14502120144.440001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
-      </c>
-      <c r="C136">
-        <v>14415188829.950001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="C136" t="s">
+        <v>61</v>
+      </c>
+      <c r="D136">
+        <v>14341093886.459999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
-      </c>
-      <c r="C137">
-        <v>14374350543.57</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="C137" t="s">
+        <v>105</v>
+      </c>
+      <c r="D137">
+        <v>14367222605.629999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
-      </c>
-      <c r="C138">
-        <v>14512776696.690001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="C138" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138">
+        <v>14217243249.190001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
-      </c>
-      <c r="C139">
-        <v>14304804144.299999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>14206643902.85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
-      </c>
-      <c r="C140">
-        <v>14368515157.42</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140">
+        <v>14479186671.860001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
-      </c>
-      <c r="C141">
-        <v>14251133641.32</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C141" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141">
+        <v>14269901206.030001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
-      </c>
-      <c r="C142">
-        <v>14492751696.32</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C142" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142">
+        <v>14485285182.469999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
-      </c>
-      <c r="C143">
-        <v>14318846678.01</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C143" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143">
+        <v>14274171851.719999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
-      </c>
-      <c r="C144">
-        <v>14544676256.27</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C144" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144">
+        <v>14563568236.620001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
-      </c>
-      <c r="C145">
-        <v>14318358326.799999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C145" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145">
+        <v>14110973593.09</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
-      </c>
-      <c r="C146">
-        <v>14385945983.389999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C146" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146">
+        <v>14431858803.35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
-      </c>
-      <c r="C147">
-        <v>14402846658.709999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C147" t="s">
+        <v>31</v>
+      </c>
+      <c r="D147">
+        <v>14466040733.98</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
-      </c>
-      <c r="C148">
-        <v>14502098804.75</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D148">
+        <v>14558897327.879999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
-      </c>
-      <c r="C149">
-        <v>14417208975.969999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C149" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149">
+        <v>14425812648.24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
-      </c>
-      <c r="C150">
-        <v>14379015313.76</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C150" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150">
+        <v>14229493093.18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
-      </c>
-      <c r="C151">
-        <v>14449154631.77</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C151" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151">
+        <v>14585229630.32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
-      </c>
-      <c r="C152">
-        <v>14358368962.23</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C152" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152">
+        <v>14522502898.280001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
-      </c>
-      <c r="C153">
-        <v>14321277459.48</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C153" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153">
+        <v>14407236392.75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
-      </c>
-      <c r="C154">
-        <v>14306294907.16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C154" t="s">
+        <v>51</v>
+      </c>
+      <c r="D154">
+        <v>14429669091.280001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
-      </c>
-      <c r="C155">
-        <v>14465504927.58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C155" t="s">
+        <v>56</v>
+      </c>
+      <c r="D155">
+        <v>14474554473.34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
-      </c>
-      <c r="C156">
-        <v>14599033213.17</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C156" t="s">
+        <v>59</v>
+      </c>
+      <c r="D156">
+        <v>14222689881.27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157">
-        <v>14617596020.969999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C157" t="s">
+        <v>64</v>
+      </c>
+      <c r="D157">
+        <v>14297191951.030001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
-      </c>
-      <c r="C158">
-        <v>14443127805.6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C158" t="s">
+        <v>65</v>
+      </c>
+      <c r="D158">
+        <v>14552292413.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
-      </c>
-      <c r="C159">
-        <v>14212646818.219999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C159" t="s">
+        <v>81</v>
+      </c>
+      <c r="D159">
+        <v>14307277679.879999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
-      </c>
-      <c r="C160">
-        <v>14378513432.379999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C160" t="s">
+        <v>89</v>
+      </c>
+      <c r="D160">
+        <v>14361496763.84</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
-      </c>
-      <c r="C161">
-        <v>14067812692.51</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C161" t="s">
+        <v>90</v>
+      </c>
+      <c r="D161">
+        <v>14518068553.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
-      </c>
-      <c r="C162">
-        <v>14205330412.620001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C162" t="s">
+        <v>96</v>
+      </c>
+      <c r="D162">
+        <v>14448965078.52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
-      </c>
-      <c r="C163">
-        <v>14715610850.559999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C163" t="s">
+        <v>97</v>
+      </c>
+      <c r="D163">
+        <v>14461378867.530001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
-      </c>
-      <c r="C164">
-        <v>14632383004.280001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C164" t="s">
+        <v>100</v>
+      </c>
+      <c r="D164">
+        <v>14586372830.219999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
-      </c>
-      <c r="C165">
-        <v>14246370718.49</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C165" t="s">
+        <v>103</v>
+      </c>
+      <c r="D165">
+        <v>14405170871.719999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
-      </c>
-      <c r="C166">
-        <v>14279620552.34</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C166" t="s">
+        <v>104</v>
+      </c>
+      <c r="D166">
+        <v>14395753895.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
-      </c>
-      <c r="C167">
-        <v>14315281294.35</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C167" t="s">
+        <v>111</v>
+      </c>
+      <c r="D167">
+        <v>14326200780.110001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
-      </c>
-      <c r="C168">
-        <v>14473458412.57</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C168" t="s">
+        <v>113</v>
+      </c>
+      <c r="D168">
+        <v>14472995236.92</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
-      </c>
-      <c r="C169">
-        <v>14205543937.049999</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C169" t="s">
+        <v>119</v>
+      </c>
+      <c r="D169">
+        <v>14467204955.01</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
-      </c>
-      <c r="C170">
-        <v>14507165896.24</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C170" t="s">
+        <v>120</v>
+      </c>
+      <c r="D170">
+        <v>14234645067.27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
-      </c>
-      <c r="C171">
-        <v>14119143166.01</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C171" t="s">
+        <v>132</v>
+      </c>
+      <c r="D171">
+        <v>14368842829.870001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
-      </c>
-      <c r="C172">
-        <v>14230674601.700001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C172" t="s">
+        <v>135</v>
+      </c>
+      <c r="D172">
+        <v>14466910860.77</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
-      </c>
-      <c r="C173">
-        <v>14298120193.42</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C173" t="s">
+        <v>141</v>
+      </c>
+      <c r="D173">
+        <v>14251133641.32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
-      </c>
-      <c r="C174">
-        <v>14259650102.120001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C174" t="s">
+        <v>143</v>
+      </c>
+      <c r="D174">
+        <v>14318846678.01</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
-      </c>
-      <c r="C175">
-        <v>14454116373.25</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C175" t="s">
+        <v>145</v>
+      </c>
+      <c r="D175">
+        <v>14318358326.799999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
-      </c>
-      <c r="C176">
-        <v>14265015359.790001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C176" t="s">
+        <v>146</v>
+      </c>
+      <c r="D176">
+        <v>14385945983.389999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
-      </c>
-      <c r="C177">
-        <v>14488021626.540001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C177" t="s">
+        <v>152</v>
+      </c>
+      <c r="D177">
+        <v>14358368962.23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
-      </c>
-      <c r="C178">
-        <v>14747230504.639999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C178" t="s">
+        <v>154</v>
+      </c>
+      <c r="D178">
+        <v>14306294907.16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
-      </c>
-      <c r="C179">
-        <v>14217243249.190001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C179" t="s">
+        <v>157</v>
+      </c>
+      <c r="D179">
+        <v>14617596020.969999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
-      </c>
-      <c r="C180">
-        <v>14476344279.200001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C180" t="s">
+        <v>158</v>
+      </c>
+      <c r="D180">
+        <v>14443127805.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
-      </c>
-      <c r="C181">
-        <v>14542712502.27</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C181" t="s">
+        <v>164</v>
+      </c>
+      <c r="D181">
+        <v>14632383004.280001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
-      </c>
-      <c r="C182">
-        <v>14241892325.370001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C182" t="s">
+        <v>167</v>
+      </c>
+      <c r="D182">
+        <v>14315281294.35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
-      </c>
-      <c r="C183">
-        <v>14163128210.450001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C183" t="s">
+        <v>168</v>
+      </c>
+      <c r="D183">
+        <v>14473458412.57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
-      </c>
-      <c r="C184">
-        <v>14593421621.24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C184" t="s">
+        <v>175</v>
+      </c>
+      <c r="D184">
+        <v>14454116373.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185" t="s">
+        <v>194</v>
+      </c>
+      <c r="C185" t="s">
         <v>185</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <v>14467843826.57</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>184</v>
       </c>
       <c r="B186" t="s">
+        <v>194</v>
+      </c>
+      <c r="C186" t="s">
         <v>186</v>
       </c>
-      <c r="C186">
+      <c r="D186">
         <v>14291933156.58</v>
       </c>
     </row>
